--- a/docs/画面項目定義書/security_group_deteil.xlsx
+++ b/docs/画面項目定義書/security_group_deteil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5ADE0B-32AB-4215-8BC2-757B38246826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF3B6E-3FA8-4B72-A8CA-135D25DA44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>日本工学院</t>
   </si>
@@ -58,16 +58,6 @@
   </si>
   <si>
     <t>表示</t>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>Ref(管理者サイドバー)</t>
-    <rPh sb="4" eb="7">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>表示</t>
@@ -81,65 +71,7 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>操作ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インスタンスタイプ追加ボタン</t>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インスタンスタイプを追加</t>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インスタンスタイプ追加モーダルを表示</t>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>ユーザーオブジェクトより</t>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>繰り返しで表示、削除ボタン・編集ボタンを表示</t>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -184,10 +116,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>テキストボックス「セキュリティグループ名」</t>
     <rPh sb="19" eb="20">
       <t>メイ</t>
@@ -195,34 +123,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>セキュリティグループ名保存ボタン</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>セキュリティグループ名キャンセルボタン</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>キャンセル</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>インバウンドルール「ルール名」</t>
     <rPh sb="13" eb="14">
       <t>メイ</t>
@@ -254,23 +154,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>インバウンドルール内ルール追加ボタン</t>
-    <rPh sb="9" eb="10">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ルールを追加</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>アウトバウンドルールタイトル</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -298,39 +181,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>アウトバウンドルール内ルール追加ボタン</t>
-    <rPh sb="10" eb="11">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力したセキュリティグループ名を確定</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力したセキュリティグループ名をクリア</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>ユーザーオブジェクトを取得し、表示</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -342,48 +192,35 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力したルールを確定し、各インバウンドルール表示欄に反映</t>
+    <t>Ref(利用者サイドバー)</t>
+    <rPh sb="4" eb="7">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「説明」</t>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス「説明」</t>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>説明</t>
     <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
+      <t>セツメイ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力したルールを確定し、各アウトバウンドルール表示欄に反映</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループオブジェクト</t>
   </si>
 </sst>
 </file>
@@ -393,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +291,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -699,7 +542,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +648,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1256,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1323,7 +1169,7 @@
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="A6" s="40" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="11"/>
@@ -1369,12 +1215,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -1384,19 +1230,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1408,98 +1254,94 @@
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="34" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="1:7" ht="24">
       <c r="A12" s="28">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="24">
       <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="32" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24">
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1">
       <c r="A14" s="31">
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="32" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23" customHeight="1">
       <c r="A15" s="31">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
+      <c r="B15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24">
       <c r="A16" s="31">
         <v>11</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24">
@@ -1507,33 +1349,35 @@
         <v>12</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24">
       <c r="A18" s="31">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="B18" s="29" t="s">
         <v>22</v>
       </c>
+      <c r="C18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24">
@@ -1541,123 +1385,121 @@
         <v>14</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="31"/>
-      <c r="E19" s="32" t="s">
-        <v>21</v>
+      <c r="E19" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24">
       <c r="A20" s="31">
         <v>15</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="33"/>
+      <c r="B20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="G20" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1">
       <c r="A21" s="31">
         <v>13</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13">
+        <v>11</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24">
       <c r="A22" s="28">
         <v>14</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="33"/>
+      <c r="B22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="34" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="24">
       <c r="A23" s="21">
         <v>15</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="33"/>
+      <c r="B23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="G23" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24">
       <c r="A24" s="28">
         <v>16</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>41</v>
+      <c r="B24" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="24">
       <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="B25" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="33"/>
       <c r="G25" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24">
@@ -1665,109 +1507,53 @@
         <v>18</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="21">
         <v>19</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="24">
+    </row>
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="21">
         <v>20</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="31"/>
-      <c r="E28" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="E28" s="32"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="24">
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="21">
         <v>21</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1">
       <c r="A30" s="21">
         <v>22</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1">
       <c r="A31" s="21">
         <v>23</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1">

--- a/docs/画面項目定義書/security_group_deteil.xlsx
+++ b/docs/画面項目定義書/security_group_deteil.xlsx
@@ -5,27 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF3B6E-3FA8-4B72-A8CA-135D25DA44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2499CF5A-2EDD-49E0-A875-F34B126A1B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3180" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>日本工学院</t>
   </si>
@@ -68,10 +64,6 @@
   </si>
   <si>
     <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトより</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -220,7 +212,8 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>セキュリティグループオブジェクト</t>
+    <t>セキュリティグループエンティティより</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -294,8 +287,9 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -644,13 +638,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1102,21 +1096,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1121,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1136,7 +1130,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1145,7 +1139,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1154,11 +1148,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:7" ht="13.5">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1167,18 +1161,18 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="40"/>
+    <row r="6" spans="1:7" ht="13.5">
+      <c r="A6" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="41"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1187,7 +1181,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1210,34 +1204,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="28">
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
@@ -1247,14 +1241,14 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="33"/>
     </row>
@@ -1263,33 +1257,33 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="32" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="31">
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -1299,118 +1293,118 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="32" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="23" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.1" customHeight="1">
       <c r="A15" s="31">
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="31">
         <v>11</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>39</v>
+      <c r="E16" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="31">
         <v>12</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>39</v>
+      <c r="E17" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="31">
         <v>13</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="31"/>
-      <c r="E18" s="41" t="s">
-        <v>39</v>
+      <c r="E18" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="31">
         <v>14</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="31"/>
-      <c r="E19" s="41" t="s">
-        <v>39</v>
+      <c r="E19" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="31">
         <v>15</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>39</v>
+      <c r="E20" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>12</v>
@@ -1421,27 +1415,27 @@
         <v>13</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="41" t="s">
-        <v>39</v>
+      <c r="E22" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>12</v>
@@ -1452,50 +1446,50 @@
         <v>15</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>39</v>
+      <c r="E23" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="31"/>
-      <c r="E24" s="41" t="s">
-        <v>39</v>
+      <c r="E24" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="24">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="31"/>
-      <c r="E25" s="41" t="s">
-        <v>39</v>
+      <c r="E25" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="34" t="s">
@@ -1507,24 +1501,24 @@
         <v>18</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="41" t="s">
-        <v>39</v>
+      <c r="E26" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="21">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="21">
         <v>20</v>
       </c>
@@ -1535,7 +1529,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="21">
         <v>21</v>
       </c>

--- a/docs/画面項目定義書/security_group_deteil.xlsx
+++ b/docs/画面項目定義書/security_group_deteil.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2499CF5A-2EDD-49E0-A875-F34B126A1B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CDFFD-A7F2-4A15-87FF-E045FADF279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3180" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -60,10 +59,6 @@
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトを取得し、繰り返しで表示</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -173,10 +168,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトを取得し、表示</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>セキュリティグループ名</t>
     <rPh sb="10" eb="11">
       <t>メイ</t>
@@ -213,6 +204,14 @@
   </si>
   <si>
     <t>セキュリティグループエンティティより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループエンティティを取得し、表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>セキュリティグループエンティティを取得し、繰り返しで表示</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -287,7 +286,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="ＭＳ ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -638,13 +637,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1096,18 +1095,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="29.875" customWidth="1"/>
     <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="7" max="7" width="41.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5">
@@ -1149,10 +1148,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13.5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1162,10 +1161,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13.5">
-      <c r="A6" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="41"/>
+      <c r="A6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1209,12 +1208,12 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -1224,14 +1223,14 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
@@ -1241,14 +1240,14 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="33"/>
     </row>
@@ -1257,18 +1256,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5">
@@ -1276,14 +1275,14 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -1293,18 +1292,18 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.1" customHeight="1">
@@ -1312,13 +1311,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5">
@@ -1326,16 +1325,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5">
@@ -1343,16 +1342,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5">
@@ -1360,18 +1359,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="31"/>
-      <c r="E18" s="39" t="s">
-        <v>38</v>
+      <c r="E18" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.5">
@@ -1379,18 +1378,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="31"/>
-      <c r="E19" s="39" t="s">
-        <v>38</v>
+      <c r="E19" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5">
@@ -1398,16 +1397,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1">
@@ -1415,13 +1414,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.5">
@@ -1429,33 +1428,33 @@
         <v>14</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24">
+    </row>
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.5">
@@ -1463,18 +1462,18 @@
         <v>16</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="31"/>
-      <c r="E24" s="39" t="s">
-        <v>38</v>
+      <c r="E24" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="34" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.5">
@@ -1482,35 +1481,35 @@
         <v>17</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="31"/>
-      <c r="E25" s="39" t="s">
-        <v>38</v>
+      <c r="E25" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="21">
         <v>18</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.5">
